--- a/참고자료/00.테이블명세 양식.xlsx
+++ b/참고자료/00.테이블명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\sql\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,139 +94,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_student</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성적처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성적처리 프로젝트에서 학생정보를 저장할 Master Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_dept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(학생 정보)테이블 명세서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,12 +431,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,15 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,7 +809,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1591,64 +1463,56 @@
       <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="12">
-        <v>44026</v>
-      </c>
-      <c r="K2" s="25" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1666,13 +1530,13 @@
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1689,23 +1553,13 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="30"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="16"/>
@@ -1714,21 +1568,11 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1739,18 +1583,10 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1762,18 +1598,10 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1785,18 +1613,10 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1808,18 +1628,10 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1831,18 +1643,10 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
